--- a/实验数据结果记录.xlsx
+++ b/实验数据结果记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="二维敏感属性" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="230">
   <si>
     <t>L=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,15 +117,831 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无权值（三维敏感属性：education(16)，occupation(14)，marital-status(7)，workclass(8)）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无权值（三维敏感属性：education(16)，occupation(14)，marital-status(7)，workclass(8)，race(5)）</t>
+    <t>6(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>171(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>251(69)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>323(111)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>414(138)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>442(142)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>576(192)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>607(201)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>732(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>827(221)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297(38)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>443(23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>574(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>693(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>860(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1730(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1495(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>594(31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1143(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1287(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>925(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2520(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2215(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1413(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1710(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1939(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1109(56)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1754(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2223(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2544(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2927(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3250(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1434(61)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1982(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2738(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3154(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3602(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4049(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1743(67)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2668(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3270(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3727(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4329(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4969(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2101(84)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3170(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3898(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4405(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5161(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5679(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2994(86)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2509(101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2821(99)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3505(61)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3866(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4218(72)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4354(24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4819(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5386(29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4966(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5520(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6157(19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5645(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6430(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7143(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7338(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6350(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8119(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205(43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>341(63)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>336(92)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510(102)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>482(106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708(124)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>798(146)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>874(186)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>939(201)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>790(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>958(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1881(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2825(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008(27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1564(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1424(36)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2317(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3096(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3754(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2344(56)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3715(19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4599(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2820(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4551(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5569(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3228(77)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5291(23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6462(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3746(84)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6040(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7393(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4332(93)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6693(27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8276(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4759(126)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7456(36)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9220(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无权值（四维敏感属性：education(16)，occupation(14)，marital-status(7)，workclass(8)）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无权值（五维敏感属性：education(16)，occupation(14)，marital-status(7)，workclass(8)，race(5)）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>515(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1979(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2965(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3951(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4965(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5916(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6944(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7923(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8860(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9860(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>733(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1189(19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1522(34)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2172(56)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2176(76)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2650(82)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3058(74)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3444(92)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3842(90)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>742(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1471(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2239(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2898(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3631(34)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4382(28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5170(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5933(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6582(28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7256(39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>933(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1861(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2787(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3745(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4610(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5585(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6609(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7549(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8290(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9231(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>880(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>972(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>995(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1995(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2995(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3970(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5975(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6945(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7930(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8940(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9935(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3848(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1755(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2583(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3456(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4332(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5189(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6081(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6915(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7776(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8680(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9593(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8629(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7674(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6731(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5746(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4797(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2875(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -195,6 +1011,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="108" workbookViewId="0">
-      <selection activeCell="XFD30" sqref="XFD30"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,28 +1333,28 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -540,28 +1362,28 @@
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>18</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>23</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>26</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>33</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>26</v>
       </c>
     </row>
@@ -569,73 +1391,81 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>120</v>
-      </c>
-      <c r="D4">
-        <v>325</v>
-      </c>
-      <c r="E4">
-        <v>466</v>
-      </c>
-      <c r="F4">
-        <v>580</v>
-      </c>
-      <c r="G4">
-        <v>696</v>
-      </c>
-      <c r="H4">
-        <v>784</v>
-      </c>
-      <c r="I4">
-        <v>860</v>
+      <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>33</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>52</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>63</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>64</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>75</v>
       </c>
     </row>
@@ -643,73 +1473,81 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>216</v>
-      </c>
-      <c r="D8">
-        <v>625</v>
-      </c>
-      <c r="E8">
-        <v>932</v>
-      </c>
-      <c r="F8">
-        <v>1146</v>
-      </c>
-      <c r="G8">
-        <v>1288</v>
-      </c>
-      <c r="H8">
-        <v>1496</v>
-      </c>
-      <c r="I8">
-        <v>1730</v>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>42</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>87</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>97</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>98</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>106</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>130</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>133</v>
       </c>
     </row>
@@ -717,73 +1555,81 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>320</v>
-      </c>
-      <c r="D12">
-        <v>965</v>
-      </c>
-      <c r="E12">
-        <v>1434</v>
-      </c>
-      <c r="F12">
-        <v>1719</v>
-      </c>
-      <c r="G12">
-        <v>1944</v>
-      </c>
-      <c r="H12">
-        <v>2217</v>
-      </c>
-      <c r="I12">
-        <v>2520</v>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>48</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>109</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>147</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>161</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>171</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>191</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>213</v>
       </c>
     </row>
@@ -791,73 +1637,81 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>424</v>
-      </c>
-      <c r="D16">
-        <v>1165</v>
-      </c>
-      <c r="E16">
-        <v>1786</v>
-      </c>
-      <c r="F16">
-        <v>2236</v>
-      </c>
-      <c r="G16">
-        <v>2552</v>
-      </c>
-      <c r="H16">
-        <v>2929</v>
-      </c>
-      <c r="I16">
-        <v>3250</v>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>37</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>71</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>163</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>216</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>258</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>296</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>293</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <v>318</v>
       </c>
     </row>
@@ -865,73 +1719,81 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>552</v>
-      </c>
-      <c r="D20">
-        <v>1495</v>
-      </c>
-      <c r="E20">
-        <v>2222</v>
-      </c>
-      <c r="F20">
-        <v>2753</v>
-      </c>
-      <c r="G20">
-        <v>3160</v>
-      </c>
-      <c r="H20">
-        <v>3605</v>
-      </c>
-      <c r="I20">
-        <v>4050</v>
+      <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>8</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>108</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>219</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>328</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>370</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>421</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>424</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="5">
         <v>492</v>
       </c>
     </row>
@@ -939,73 +1801,81 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>584</v>
-      </c>
-      <c r="D24">
-        <v>1810</v>
-      </c>
-      <c r="E24">
-        <v>2718</v>
-      </c>
-      <c r="F24">
-        <v>3291</v>
-      </c>
-      <c r="G24">
-        <v>3736</v>
-      </c>
-      <c r="H24">
-        <v>4335</v>
-      </c>
-      <c r="I24">
-        <v>4970</v>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>18</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>109</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>244</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>323</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>468</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="5">
         <v>488</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <v>510</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="5">
         <v>481</v>
       </c>
     </row>
@@ -1013,73 +1883,81 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>768</v>
-      </c>
-      <c r="D28">
-        <v>2185</v>
-      </c>
-      <c r="E28">
-        <v>3220</v>
-      </c>
-      <c r="F28">
-        <v>3920</v>
-      </c>
-      <c r="G28">
-        <v>4416</v>
-      </c>
-      <c r="H28">
-        <v>5164</v>
-      </c>
-      <c r="I28">
-        <v>5680</v>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>13</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>124</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>303</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>440</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <v>489</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="5">
         <v>535</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <v>567</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="5">
         <v>618</v>
       </c>
     </row>
@@ -1087,73 +1965,81 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>808</v>
-      </c>
-      <c r="D32">
-        <v>2380</v>
-      </c>
-      <c r="E32">
-        <v>3566</v>
-      </c>
-      <c r="F32">
-        <v>4374</v>
-      </c>
-      <c r="G32">
-        <v>4976</v>
-      </c>
-      <c r="H32">
-        <v>5651</v>
-      </c>
-      <c r="I32">
-        <v>6350</v>
+      <c r="B32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>15</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>178</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>356</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>517</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="5">
         <v>596</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="5">
         <v>763</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <v>726</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="5">
         <v>811</v>
       </c>
     </row>
@@ -1161,73 +2047,81 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>932</v>
-      </c>
-      <c r="D36">
-        <v>2610</v>
-      </c>
-      <c r="E36">
-        <v>3930</v>
-      </c>
-      <c r="F36">
-        <v>4849</v>
-      </c>
-      <c r="G36">
-        <v>5536</v>
-      </c>
-      <c r="H36">
-        <v>6435</v>
-      </c>
-      <c r="I36">
-        <v>7340</v>
+      <c r="B36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>23</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>201</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>436</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>603</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="5">
         <v>706</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="5">
         <v>899</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <v>962</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="5">
         <v>1002</v>
       </c>
     </row>
@@ -1235,29 +2129,29 @@
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40">
-        <v>13</v>
-      </c>
-      <c r="C40">
-        <v>1048</v>
-      </c>
-      <c r="D40">
-        <v>2920</v>
-      </c>
-      <c r="E40">
-        <v>4290</v>
-      </c>
-      <c r="F40">
-        <v>5415</v>
-      </c>
-      <c r="G40">
-        <v>6176</v>
-      </c>
-      <c r="H40">
-        <v>7147</v>
-      </c>
-      <c r="I40">
-        <v>8120</v>
+      <c r="B40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1274,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1350,20 +2244,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>184</v>
-      </c>
-      <c r="D4">
-        <v>550</v>
-      </c>
-      <c r="E4">
-        <v>790</v>
-      </c>
-      <c r="F4">
-        <v>958</v>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1406,20 +2300,20 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>248</v>
-      </c>
-      <c r="D8">
-        <v>1035</v>
-      </c>
-      <c r="E8">
-        <v>1568</v>
-      </c>
-      <c r="F8">
-        <v>1881</v>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1462,20 +2356,20 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>404</v>
-      </c>
-      <c r="D12">
-        <v>1460</v>
-      </c>
-      <c r="E12">
-        <v>2328</v>
-      </c>
-      <c r="F12">
-        <v>2825</v>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1518,20 +2412,20 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>428</v>
-      </c>
-      <c r="D16">
-        <v>1965</v>
-      </c>
-      <c r="E16">
-        <v>3112</v>
-      </c>
-      <c r="F16">
-        <v>3755</v>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1574,20 +2468,20 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>612</v>
-      </c>
-      <c r="D20">
-        <v>2400</v>
-      </c>
-      <c r="E20">
-        <v>3734</v>
-      </c>
-      <c r="F20">
-        <v>4601</v>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1630,20 +2524,20 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>588</v>
-      </c>
-      <c r="D24">
-        <v>2880</v>
-      </c>
-      <c r="E24">
-        <v>4572</v>
-      </c>
-      <c r="F24">
-        <v>5573</v>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1686,20 +2580,20 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>832</v>
-      </c>
-      <c r="D28">
-        <v>3305</v>
-      </c>
-      <c r="E28">
-        <v>5314</v>
-      </c>
-      <c r="F28">
-        <v>6468</v>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1742,20 +2636,20 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>944</v>
-      </c>
-      <c r="D32">
-        <v>3830</v>
-      </c>
-      <c r="E32">
-        <v>6062</v>
-      </c>
-      <c r="F32">
-        <v>7398</v>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1798,20 +2692,20 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>1060</v>
-      </c>
-      <c r="D36">
-        <v>4425</v>
-      </c>
-      <c r="E36">
-        <v>6720</v>
-      </c>
-      <c r="F36">
-        <v>8279</v>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1854,20 +2748,20 @@
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40">
-        <v>13</v>
-      </c>
-      <c r="C40">
-        <v>1140</v>
-      </c>
-      <c r="D40">
-        <v>4885</v>
-      </c>
-      <c r="E40">
-        <v>7492</v>
-      </c>
-      <c r="F40">
-        <v>9223</v>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +2778,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1894,7 +2788,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1958,20 +2852,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>432</v>
-      </c>
-      <c r="D4">
-        <v>755</v>
-      </c>
-      <c r="E4">
-        <v>934</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2014,20 +2908,20 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>744</v>
-      </c>
-      <c r="D8">
-        <v>1485</v>
-      </c>
-      <c r="E8">
-        <v>1862</v>
-      </c>
-      <c r="F8">
-        <v>1979</v>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2070,20 +2964,20 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>1208</v>
-      </c>
-      <c r="D12">
-        <v>2260</v>
-      </c>
-      <c r="E12">
-        <v>2790</v>
-      </c>
-      <c r="F12">
-        <v>2965</v>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2126,20 +3020,20 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>1556</v>
-      </c>
-      <c r="D16">
-        <v>2930</v>
-      </c>
-      <c r="E16">
-        <v>3748</v>
-      </c>
-      <c r="F16">
-        <v>3951</v>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2182,20 +3076,20 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>2028</v>
-      </c>
-      <c r="D20">
-        <v>3665</v>
-      </c>
-      <c r="E20">
-        <v>4616</v>
-      </c>
-      <c r="F20">
-        <v>4965</v>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2238,20 +3132,20 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <v>2252</v>
-      </c>
-      <c r="D24">
-        <v>4410</v>
-      </c>
-      <c r="E24">
-        <v>5598</v>
-      </c>
-      <c r="F24">
-        <v>5916</v>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2294,20 +3188,20 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
-        <v>31</v>
-      </c>
-      <c r="C28">
-        <v>2732</v>
-      </c>
-      <c r="D28">
-        <v>5200</v>
-      </c>
-      <c r="E28">
-        <v>6610</v>
-      </c>
-      <c r="F28">
-        <v>6944</v>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2350,20 +3244,20 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>3132</v>
-      </c>
-      <c r="D32">
-        <v>5965</v>
-      </c>
-      <c r="E32">
-        <v>7550</v>
-      </c>
-      <c r="F32">
-        <v>7923</v>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2406,23 +3300,23 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>3536</v>
-      </c>
-      <c r="D36">
-        <v>6610</v>
-      </c>
-      <c r="E36">
-        <v>8292</v>
-      </c>
-      <c r="F36">
-        <v>8860</v>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" t="s">
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2465,20 +3359,20 @@
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40">
-        <v>31</v>
-      </c>
-      <c r="C40">
-        <v>3932</v>
-      </c>
-      <c r="D40">
-        <v>7295</v>
-      </c>
-      <c r="E40">
-        <v>9232</v>
-      </c>
-      <c r="F40">
-        <v>9860</v>
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2494,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2505,7 +3399,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2569,14 +3463,14 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>880</v>
-      </c>
-      <c r="C4">
-        <v>972</v>
-      </c>
-      <c r="D4">
-        <v>995</v>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -2619,14 +3513,14 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1757</v>
-      </c>
-      <c r="C8">
-        <v>1920</v>
-      </c>
-      <c r="D8">
-        <v>1995</v>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2663,14 +3557,14 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>2589</v>
-      </c>
-      <c r="C12">
-        <v>2876</v>
-      </c>
-      <c r="D12">
-        <v>2995</v>
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2707,14 +3601,14 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>3463</v>
-      </c>
-      <c r="C16">
-        <v>3848</v>
-      </c>
-      <c r="D16">
-        <v>3970</v>
+      <c r="B16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2751,14 +3645,14 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20">
-        <v>4343</v>
-      </c>
-      <c r="C20">
-        <v>4800</v>
-      </c>
-      <c r="D20">
-        <v>4965</v>
+      <c r="B20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2795,14 +3689,14 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>5202</v>
-      </c>
-      <c r="C24">
-        <v>5748</v>
-      </c>
-      <c r="D24">
-        <v>5975</v>
+      <c r="B24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2839,14 +3733,14 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
-        <v>6097</v>
-      </c>
-      <c r="C28">
-        <v>6732</v>
-      </c>
-      <c r="D28">
-        <v>6945</v>
+      <c r="B28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2883,14 +3777,14 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32">
-        <v>6929</v>
-      </c>
-      <c r="C32">
-        <v>7676</v>
-      </c>
-      <c r="D32">
-        <v>7930</v>
+      <c r="B32" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2927,14 +3821,14 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36">
-        <v>7797</v>
-      </c>
-      <c r="C36">
-        <v>8632</v>
-      </c>
-      <c r="D36">
-        <v>8940</v>
+      <c r="B36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2955,14 +3849,14 @@
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39">
-        <v>8698</v>
-      </c>
-      <c r="C39">
-        <v>9596</v>
-      </c>
-      <c r="D39">
-        <v>9935</v>
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
